--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Yearly Results of ASM Technologies(in Rs. Cr.)</t>
   </si>
@@ -164,6 +164,96 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>12.42</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>10.06</t>
+  </si>
+  <si>
+    <t>21.40</t>
+  </si>
+  <si>
+    <t>12.71</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>7.57</t>
+  </si>
+  <si>
+    <t>30.58</t>
+  </si>
+  <si>
+    <t>25.87</t>
+  </si>
+  <si>
+    <t>29.86</t>
+  </si>
+  <si>
+    <t>40.29</t>
+  </si>
+  <si>
+    <t>46.26</t>
+  </si>
+  <si>
+    <t>42.85</t>
+  </si>
+  <si>
+    <t>62.33</t>
+  </si>
+  <si>
+    <t>71.14</t>
+  </si>
+  <si>
+    <t>90.62</t>
+  </si>
+  <si>
+    <t>104.41</t>
+  </si>
+  <si>
+    <t>109.42</t>
+  </si>
+  <si>
+    <t>101.48</t>
+  </si>
+  <si>
+    <t>73.97</t>
+  </si>
+  <si>
+    <t>76.19</t>
+  </si>
+  <si>
+    <t>76.06</t>
+  </si>
+  <si>
+    <t>83.84</t>
+  </si>
+  <si>
+    <t>113.22</t>
+  </si>
+  <si>
+    <t>141.07</t>
+  </si>
+  <si>
+    <t>139.15</t>
+  </si>
+  <si>
+    <t>122.28</t>
   </si>
 </sst>
 </file>
@@ -593,14 +683,14 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>7.2</v>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D2">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E2">
         <v>0.06</v>
@@ -609,28 +699,28 @@
         <v>6.07</v>
       </c>
       <c r="G2">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H2">
         <v>0.04</v>
       </c>
       <c r="I2">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L2">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M2">
         <v>0.15</v>
       </c>
       <c r="N2">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O2">
         <v>0.65</v>
@@ -639,30 +729,30 @@
         <v>2.93</v>
       </c>
       <c r="Q2">
-        <v>25.13724137931035</v>
+        <v>25.14</v>
       </c>
       <c r="R2">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S2">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T2">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>12.42</v>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D3">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E3">
         <v>0.14</v>
@@ -671,28 +761,28 @@
         <v>10.75</v>
       </c>
       <c r="G3">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H3">
         <v>0.05</v>
       </c>
       <c r="I3">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J3">
         <v>0.57</v>
       </c>
       <c r="K3">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L3">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M3">
         <v>0.06</v>
       </c>
       <c r="N3">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O3">
         <v>0.95</v>
@@ -704,27 +794,27 @@
         <v>1.29</v>
       </c>
       <c r="R3">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S3">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T3">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>10.04</v>
+      <c r="B4" t="s">
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D4">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E4">
         <v>0.22</v>
@@ -733,28 +823,28 @@
         <v>7.94</v>
       </c>
       <c r="G4">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H4">
         <v>0.09</v>
       </c>
       <c r="I4">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J4">
         <v>1.18</v>
       </c>
       <c r="K4">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L4">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M4">
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O4">
         <v>0.6899999999999999</v>
@@ -766,27 +856,27 @@
         <v>2.28</v>
       </c>
       <c r="R4">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T4">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>6.76</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D5">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E5">
         <v>0.29</v>
@@ -795,28 +885,28 @@
         <v>4.99</v>
       </c>
       <c r="G5">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H5">
         <v>0.02</v>
       </c>
       <c r="I5">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J5">
         <v>1.49</v>
       </c>
       <c r="K5">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L5">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M5">
-        <v>2.07962962962963</v>
+        <v>2.08</v>
       </c>
       <c r="N5">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O5">
         <v>0.01</v>
@@ -828,27 +918,27 @@
         <v>2.29</v>
       </c>
       <c r="R5">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S5">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T5">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>5.29</v>
+      <c r="B6" t="s">
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D6">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E6">
         <v>0.42</v>
@@ -857,28 +947,28 @@
         <v>3.2</v>
       </c>
       <c r="G6">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H6">
         <v>0.07000000000000001</v>
       </c>
       <c r="I6">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J6">
         <v>1.57</v>
       </c>
       <c r="K6">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L6">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M6">
         <v>0.01</v>
       </c>
       <c r="N6">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O6">
         <v>0.15</v>
@@ -890,27 +980,27 @@
         <v>2.29</v>
       </c>
       <c r="R6">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S6">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T6">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>10.06</v>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>67.87958333333333</v>
+        <v>67.88</v>
       </c>
       <c r="D7">
-        <v>45.73791666666667</v>
+        <v>45.74</v>
       </c>
       <c r="E7">
         <v>1.68</v>
@@ -919,28 +1009,28 @@
         <v>11.05</v>
       </c>
       <c r="G7">
-        <v>6.34875</v>
+        <v>6.35</v>
       </c>
       <c r="H7">
         <v>0.15</v>
       </c>
       <c r="I7">
-        <v>8.778749999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J7">
         <v>1.93</v>
       </c>
       <c r="K7">
-        <v>7.050833333333332</v>
+        <v>7.05</v>
       </c>
       <c r="L7">
-        <v>7.808333333333333</v>
+        <v>7.81</v>
       </c>
       <c r="M7">
-        <v>2.07962962962963</v>
+        <v>2.08</v>
       </c>
       <c r="N7">
-        <v>5.481666666666668</v>
+        <v>5.48</v>
       </c>
       <c r="O7">
         <v>-4.46</v>
@@ -952,21 +1042,21 @@
         <v>1.17</v>
       </c>
       <c r="R7">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S7">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T7">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>21.4</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8">
         <v>21.4</v>
@@ -999,7 +1089,7 @@
         <v>1.26</v>
       </c>
       <c r="M8">
-        <v>2.07962962962963</v>
+        <v>2.08</v>
       </c>
       <c r="N8">
         <v>1.26</v>
@@ -1014,7 +1104,7 @@
         <v>1.26</v>
       </c>
       <c r="R8">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S8">
         <v>0.26</v>
@@ -1027,8 +1117,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>12.71</v>
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
       <c r="C9">
         <v>12.71</v>
@@ -1076,7 +1166,7 @@
         <v>0.45</v>
       </c>
       <c r="R9">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S9">
         <v>0.26</v>
@@ -1089,8 +1179,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>5.59</v>
+      <c r="B10" t="s">
+        <v>58</v>
       </c>
       <c r="C10">
         <v>5.59</v>
@@ -1138,7 +1228,7 @@
         <v>-1.41</v>
       </c>
       <c r="R10">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S10">
         <v>0.26</v>
@@ -1151,8 +1241,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>7.57</v>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11">
         <v>7.57</v>
@@ -1200,7 +1290,7 @@
         <v>-2.7</v>
       </c>
       <c r="R11">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S11">
         <v>0.25</v>
@@ -1213,8 +1303,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>30.58</v>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
       <c r="C12">
         <v>30.58</v>
@@ -1262,21 +1352,21 @@
         <v>-2.15</v>
       </c>
       <c r="R12">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S12">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T12">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>25.87</v>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13">
         <v>25.87</v>
@@ -1324,7 +1414,7 @@
         <v>-0.54</v>
       </c>
       <c r="R13">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S13">
         <v>0.24</v>
@@ -1337,8 +1427,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>29.86</v>
+      <c r="B14" t="s">
+        <v>62</v>
       </c>
       <c r="C14">
         <v>29.86</v>
@@ -1386,7 +1476,7 @@
         <v>0.66</v>
       </c>
       <c r="R14">
-        <v>37.97058823529412</v>
+        <v>37.97</v>
       </c>
       <c r="S14">
         <v>0.23</v>
@@ -1399,8 +1489,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>40.29</v>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="C15">
         <v>40.29</v>
@@ -1461,8 +1551,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>46.26</v>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16">
         <v>46.26</v>
@@ -1523,8 +1613,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>42.85</v>
+      <c r="B17" t="s">
+        <v>65</v>
       </c>
       <c r="C17">
         <v>42.85</v>
@@ -1585,8 +1675,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>62.33</v>
+      <c r="B18" t="s">
+        <v>66</v>
       </c>
       <c r="C18">
         <v>62.33</v>
@@ -1647,8 +1737,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>71.14</v>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19">
         <v>71.38</v>
@@ -1709,8 +1799,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>90.62</v>
+      <c r="B20" t="s">
+        <v>68</v>
       </c>
       <c r="C20">
         <v>90.75</v>
@@ -1771,8 +1861,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>104.41</v>
+      <c r="B21" t="s">
+        <v>69</v>
       </c>
       <c r="C21">
         <v>104.47</v>
@@ -1833,8 +1923,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>109.42</v>
+      <c r="B22" t="s">
+        <v>70</v>
       </c>
       <c r="C22">
         <v>109.43</v>
@@ -1895,8 +1985,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>101.48</v>
+      <c r="B23" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <v>101.69</v>
@@ -1957,8 +2047,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>73.97</v>
+      <c r="B24" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>74.27</v>
@@ -2019,8 +2109,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>76.19</v>
+      <c r="B25" t="s">
+        <v>73</v>
       </c>
       <c r="C25">
         <v>76.19</v>
@@ -2071,18 +2161,18 @@
         <v>50</v>
       </c>
       <c r="S25">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T25">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>76.06</v>
+      <c r="B26" t="s">
+        <v>74</v>
       </c>
       <c r="C26">
         <v>76.06</v>
@@ -2133,18 +2223,18 @@
         <v>60</v>
       </c>
       <c r="S26">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T26">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>83.84</v>
+      <c r="B27" t="s">
+        <v>75</v>
       </c>
       <c r="C27">
         <v>83.84</v>
@@ -2195,18 +2285,18 @@
         <v>25</v>
       </c>
       <c r="S27">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T27">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>113.22</v>
+      <c r="B28" t="s">
+        <v>76</v>
       </c>
       <c r="C28">
         <v>113.22</v>
@@ -2257,18 +2347,18 @@
         <v>70</v>
       </c>
       <c r="S28">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T28">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>141.07</v>
+      <c r="B29" t="s">
+        <v>77</v>
       </c>
       <c r="C29">
         <v>141.07</v>
@@ -2319,18 +2409,18 @@
         <v>85</v>
       </c>
       <c r="S29">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T29">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>139.15</v>
+      <c r="B30" t="s">
+        <v>78</v>
       </c>
       <c r="C30">
         <v>139.15</v>
@@ -2381,18 +2471,18 @@
         <v>70</v>
       </c>
       <c r="S30">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T30">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>122.28</v>
+      <c r="B31" t="s">
+        <v>79</v>
       </c>
       <c r="C31">
         <v>122.28</v>
@@ -2443,10 +2533,10 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>0.21875</v>
+        <v>0.22</v>
       </c>
       <c r="T31">
-        <v>43.71125</v>
+        <v>43.71</v>
       </c>
     </row>
   </sheetData>
